--- a/data/0. SAMPLE_DATA.xlsx
+++ b/data/0. SAMPLE_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinkp\GitHub\opentrons\data\example_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinkp\GitHub\opentrons\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B122CCA3-B804-413D-BAD3-EBB70B52B22A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2442C2CF-32A1-44BD-8EFA-B5CA1E24EC3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{319A77C1-AB08-46A6-8832-F6BE764A2789}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>WHERE</t>
   </si>
   <si>
-    <t>WHAT</t>
-  </si>
-  <si>
     <t>CH3CH2OH</t>
   </si>
   <si>
@@ -76,13 +73,16 @@
   </si>
   <si>
     <t>Destination_Well</t>
+  </si>
+  <si>
+    <t>WHAT (Chemical Formula)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202122"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -123,10 +138,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,18 +465,21 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -514,18 +534,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565A51B6-62B9-4483-88D3-3E2E6228803E}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -534,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -545,7 +572,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -556,7 +583,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
